--- a/config_11.30/banner_style_ui.xlsx
+++ b/config_11.30/banner_style_ui.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="208">
   <si>
     <t>id|行号，从1开始，连续就行</t>
   </si>
@@ -923,10 +923,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>cpl_notcjj</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>vip</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -936,6 +932,10 @@
   </si>
   <si>
     <t>DailyUp</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_buy_gift_bag_10666</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1633,8 +1633,8 @@
   <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L90" sqref="L90"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4701,7 +4701,7 @@
         <v>202</v>
       </c>
       <c r="D100" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -4710,13 +4710,13 @@
         <v>200</v>
       </c>
       <c r="G100" s="12" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H100" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="J100" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="J100" s="6" t="s">
-        <v>207</v>
       </c>
       <c r="K100" s="7">
         <v>-1</v>
@@ -4734,6 +4734,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -4741,37 +4749,7 @@
 </settings>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="7" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="5">
     <comment s:ref="E1" rgbClr="FF0000">
@@ -4788,38 +4766,60 @@
 </comments>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="7" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_11.30/banner_style_ui.xlsx
+++ b/config_11.30/banner_style_ui.xlsx
@@ -927,15 +927,15 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>"vip4hks",</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>DailyUp</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>actp_buy_gift_bag_10666</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>"vip","vip4hks","panel"</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1634,7 +1634,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G100" sqref="G100"/>
+      <selection pane="bottomLeft" activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4710,13 +4710,13 @@
         <v>200</v>
       </c>
       <c r="G100" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="H100" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="H100" s="12" t="s">
+      <c r="J100" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="J100" s="6" t="s">
-        <v>206</v>
       </c>
       <c r="K100" s="7">
         <v>-1</v>
@@ -4734,6 +4734,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="5"/>
   <pixelatorList sheetStid="6"/>
@@ -4741,15 +4749,29 @@
 </pixelators>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="7" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="5">
     <comment s:ref="E1" rgbClr="FF0000">
@@ -4766,60 +4788,38 @@
 </comments>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="7" master=""/>
-</allowEditUser>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_11.30/banner_style_ui.xlsx
+++ b/config_11.30/banner_style_ui.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="207">
   <si>
     <t>id|行号，从1开始，连续就行</t>
   </si>
@@ -927,15 +927,11 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>DailyUp</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>actp_buy_gift_bag_10666</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>"vip","vip4hks","panel"</t>
+    <t>"vip","vip4hks"</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1634,7 +1630,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H100" sqref="H100"/>
+      <selection pane="bottomLeft" activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4710,13 +4706,13 @@
         <v>200</v>
       </c>
       <c r="G100" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="H100" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="H100" s="12" t="s">
-        <v>207</v>
-      </c>
       <c r="J100" s="6" t="s">
-        <v>205</v>
+        <v>19</v>
       </c>
       <c r="K100" s="7">
         <v>-1</v>
@@ -4734,6 +4730,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="5"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -4741,37 +4745,7 @@
 </settings>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="5"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="5" master=""/>
-  <rangeList sheetStid="6" master=""/>
-  <rangeList sheetStid="7" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <commentList sheetStid="5">
     <comment s:ref="E1" rgbClr="FF0000">
@@ -4788,38 +4762,60 @@
 </comments>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="5" master=""/>
+  <rangeList sheetStid="6" master=""/>
+  <rangeList sheetStid="7" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="5" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="6" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>